--- a/artifacts/failure_cases/results/evidence_results.xlsx
+++ b/artifacts/failure_cases/results/evidence_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\arnav\Documents\VS Code\RAG 12 Week Series\rag-failure-modes\artifacts\failure_cases\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85872EC-71C8-4D0B-9532-F11196CE4B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A70CA1-9AB3-4736-9795-640D0AF507D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Failure Taxonomy" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
   <si>
     <t>question_id</t>
   </si>
@@ -211,6 +211,27 @@
   </si>
   <si>
     <t>Explicit sinusoidal formulation required</t>
+  </si>
+  <si>
+    <t>assessor_sufficiency</t>
+  </si>
+  <si>
+    <t>failure_mode</t>
+  </si>
+  <si>
+    <t>justification</t>
+  </si>
+  <si>
+    <t>insufficient</t>
+  </si>
+  <si>
+    <t>conflicting</t>
+  </si>
+  <si>
+    <t>Multiple high-scoring chunks retrieved, conflicting signals not properly resolved.</t>
+  </si>
+  <si>
+    <t>Assessor marks evidence sufficient despite zero key-term coverage; confidence unjustified.</t>
   </si>
 </sst>
 </file>
@@ -269,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,6 +304,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E593152-2C64-4619-B048-504AB153CB01}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,242 +685,243 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150EC516-BA3F-4ED5-9C22-74AC7B240E40}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="B8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -895,7 +929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
